--- a/Fase2/UML/Especificação de Use Cases/Ver todos os Serviços Efectuados.xlsx
+++ b/Fase2/UML/Especificação de Use Cases/Ver todos os Serviços Efectuados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Google Drive\Universidade\3º + 2º Ano_\2º Semestre\LI4\Especificação de Use Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\OneDrive\Documents\GitHub\li4-17-18\Fase2\UML\Especificação de Use Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA774D2A-4622-4D36-BD82-247B4BBE9A94}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAB3524-8550-4120-A175-FF749C832ACC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{B0A5F39A-35DD-4FBA-995F-9EBC969E433D}"/>
   </bookViews>
@@ -121,10 +121,10 @@
     <t>Apresenta lista de todos os serviços efectuados por um determinado pintor</t>
   </si>
   <si>
-    <t>Pede para ver todos os serviços efectuados</t>
-  </si>
-  <si>
     <t>Apresenta lista de Serviços efectuados</t>
+  </si>
+  <si>
+    <t>Indica que pretende ver todos os serviços efectuados</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
